--- a/TestData/TMTI0045472_VerifyBetaUserWithDifferentTitleIsAbletoEnterHoursfromTimeRecordmanager.xlsx
+++ b/TestData/TMTI0045472_VerifyBetaUserWithDifferentTitleIsAbletoEnterHoursfromTimeRecordmanager.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijay.kumar\source\repos\SalesForce_Project\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E61E9AC-5CD5-4BA2-AC6E-44CCFC38D3CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C741B77A-0892-4887-A23C-A616E6E509C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12750" windowHeight="2970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>Select Project</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>Engagement Eventide-FVA-111771</t>
+  </si>
+  <si>
+    <t>Eventide-Eventide Asset Management, LLC-FVA-111771</t>
+  </si>
+  <si>
+    <t>(MEH) Thompson_CLP Toxicology-Thompson Hine, LLP-FVA-26495</t>
+  </si>
+  <si>
+    <t>Debevoise_Xie (Consulting)-Debevoise &amp; Plimpton LLP-FVA-26378</t>
   </si>
 </sst>
 </file>
@@ -424,17 +433,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -442,7 +451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -450,7 +459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -466,22 +475,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,9 +505,9 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -509,11 +518,13 @@
       <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -521,16 +532,8 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -541,20 +544,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,9 +569,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
@@ -575,10 +579,13 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
@@ -586,16 +593,22 @@
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
